--- a/ig/sd-add-date-start-idPrimary/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-date-start-idPrimary/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$106</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3818" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="646">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T11:26:00+00:00</t>
+    <t>2024-01-24T11:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -888,6 +888,77 @@
     <t>Role.effectiveTime or implied by context</t>
   </si>
   <si>
+    <t>ResearchStudy.identifier:idPrimary.period.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.period.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.period.start</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date d'inscription au registre principal / Date of Registration in Primary Registry</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t>ele-1
+per-1</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.period.end</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period.end</t>
+  </si>
+  <si>
+    <t>End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>DR.2</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
     <t>ResearchStudy.identifier:idPrimary.assigner</t>
   </si>
   <si>
@@ -1687,54 +1758,13 @@
     <t>ResearchStudy.period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
     <t>Starting time with inclusive boundary</t>
   </si>
   <si>
-    <t>The start of the period. The boundary is inclusive.</t>
-  </si>
-  <si>
-    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
-  </si>
-  <si>
-    <t>Period.start</t>
-  </si>
-  <si>
-    <t>ele-1
-per-1</t>
-  </si>
-  <si>
-    <t>DR.1</t>
-  </si>
-  <si>
-    <t>./low</t>
-  </si>
-  <si>
     <t>ResearchStudy.period.end</t>
   </si>
   <si>
     <t>Date à laquelle l'essai se termine (la date initiale est prévisionnelle) / Completion date</t>
-  </si>
-  <si>
-    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
-  </si>
-  <si>
-    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
-  </si>
-  <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
-  </si>
-  <si>
-    <t>Period.end</t>
-  </si>
-  <si>
-    <t>DR.2</t>
-  </si>
-  <si>
-    <t>./high</t>
   </si>
   <si>
     <t>ResearchStudy.sponsor</t>
@@ -2301,7 +2331,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO102"/>
+  <dimension ref="A1:AO106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5778,20 +5808,18 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>281</v>
+        <v>174</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5840,7 +5868,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5849,19 +5877,19 @@
         <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>288</v>
+        <v>111</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5872,16 +5900,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5891,27 +5917,27 @@
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>139</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5947,19 +5973,19 @@
         <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5971,30 +5997,30 @@
         <v>102</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6014,18 +6040,20 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>174</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>175</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -6074,7 +6102,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>177</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6083,19 +6111,19 @@
         <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>111</v>
+        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6109,18 +6137,18 @@
         <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>224</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -6129,25 +6157,27 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>139</v>
+        <v>295</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>141</v>
+        <v>297</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
       </c>
@@ -6179,40 +6209,40 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>182</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>104</v>
+        <v>301</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6223,10 +6253,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6234,7 +6264,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>90</v>
@@ -6243,26 +6273,24 @@
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>113</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6271,7 +6299,7 @@
         <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>80</v>
@@ -6286,13 +6314,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -6310,7 +6338,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6322,16 +6350,16 @@
         <v>102</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>104</v>
+        <v>310</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6342,12 +6370,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6356,10 +6386,10 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>80</v>
@@ -6368,19 +6398,17 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6405,13 +6433,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -6429,13 +6457,13 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>102</v>
@@ -6444,27 +6472,27 @@
         <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6484,23 +6512,19 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>252</v>
+        <v>175</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6512,7 +6536,7 @@
         <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>80</v>
@@ -6548,7 +6572,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>257</v>
+        <v>177</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6557,19 +6581,19 @@
         <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6580,21 +6604,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6603,19 +6627,19 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>262</v>
+        <v>139</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6629,7 +6653,7 @@
         <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>80</v>
@@ -6653,40 +6677,40 @@
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>268</v>
+        <v>104</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6697,10 +6721,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6708,7 +6732,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>90</v>
@@ -6717,24 +6741,26 @@
         <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>271</v>
+        <v>113</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6743,7 +6769,7 @@
         <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>80</v>
@@ -6758,13 +6784,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6782,7 +6808,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6794,16 +6820,16 @@
         <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>276</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>277</v>
+        <v>104</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6814,10 +6840,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6840,18 +6866,20 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6875,13 +6903,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6899,7 +6927,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6911,16 +6939,16 @@
         <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>286</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6931,10 +6959,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6948,7 +6976,7 @@
         <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>80</v>
@@ -6957,18 +6985,20 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6980,7 +7010,7 @@
         <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>80</v>
@@ -7016,7 +7046,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7031,16 +7061,16 @@
         <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -7048,10 +7078,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7062,7 +7092,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -7074,16 +7104,16 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>308</v>
+        <v>174</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7097,7 +7127,7 @@
         <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>80</v>
@@ -7133,31 +7163,31 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>286</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7165,21 +7195,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -7191,20 +7221,18 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7252,28 +7280,28 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7287,7 +7315,7 @@
         <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7295,31 +7323,31 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>113</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7345,13 +7373,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7369,10 +7397,10 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>90</v>
@@ -7381,30 +7409,30 @@
         <v>102</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7418,7 +7446,7 @@
         <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
@@ -7427,16 +7455,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7462,13 +7490,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7486,7 +7514,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7501,16 +7529,16 @@
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>339</v>
+        <v>111</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7518,10 +7546,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7532,10 +7560,10 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
@@ -7544,13 +7572,13 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>240</v>
+        <v>331</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>334</v>
@@ -7579,11 +7607,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="Y45" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z45" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7601,31 +7631,31 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7633,14 +7663,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7650,7 +7680,7 @@
         <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
@@ -7659,18 +7689,20 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7694,11 +7726,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="Y46" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z46" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7716,7 +7750,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7728,19 +7762,19 @@
         <v>102</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7748,10 +7782,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7759,31 +7793,31 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7809,13 +7843,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>355</v>
+        <v>233</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7833,13 +7867,13 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>102</v>
@@ -7848,27 +7882,27 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7879,10 +7913,10 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>80</v>
@@ -7894,13 +7928,13 @@
         <v>240</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7926,13 +7960,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>355</v>
+        <v>245</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7941,22 +7975,22 @@
         <v>80</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>102</v>
@@ -7965,31 +7999,29 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7998,7 +8030,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>91</v>
@@ -8013,13 +8045,13 @@
         <v>240</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8045,37 +8077,35 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="Y49" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y49" s="2"/>
+      <c r="Z49" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>102</v>
@@ -8084,27 +8114,27 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8115,27 +8145,29 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>175</v>
+        <v>370</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8145,70 +8177,68 @@
         <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y50" s="2"/>
+      <c r="Z50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="T50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AL50" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>111</v>
+        <v>362</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>374</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -8216,14 +8246,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>375</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8239,19 +8269,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>139</v>
+        <v>376</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>225</v>
+        <v>377</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>141</v>
+        <v>357</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8277,10 +8307,10 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -8289,19 +8319,19 @@
         <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>182</v>
+        <v>375</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8313,30 +8343,30 @@
         <v>102</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>104</v>
+        <v>362</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8350,7 +8380,7 @@
         <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
@@ -8359,20 +8389,18 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>378</v>
+        <v>240</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8396,13 +8424,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8411,13 +8439,13 @@
         <v>80</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>383</v>
@@ -8435,29 +8463,31 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8466,27 +8496,29 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>175</v>
+        <v>393</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8511,13 +8543,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8535,53 +8567,53 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>177</v>
+        <v>383</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>111</v>
+        <v>362</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8593,17 +8625,15 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8613,7 +8643,7 @@
         <v>80</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>80</v>
@@ -8640,31 +8670,31 @@
         <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
@@ -8673,7 +8703,7 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8684,21 +8714,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8707,23 +8737,21 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
+        <v>139</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>393</v>
+        <v>225</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8732,7 +8760,7 @@
         <v>80</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>80</v>
@@ -8759,40 +8787,40 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>397</v>
+        <v>182</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>399</v>
+        <v>104</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8803,10 +8831,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8817,7 +8845,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8829,7 +8857,7 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>174</v>
+        <v>401</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>402</v>
@@ -8840,7 +8868,9 @@
       <c r="N56" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8888,13 +8918,13 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>102</v>
@@ -8906,10 +8936,10 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8920,10 +8950,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8943,23 +8973,19 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>410</v>
+        <v>175</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -9007,7 +9033,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>413</v>
+        <v>177</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9016,19 +9042,19 @@
         <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>414</v>
+        <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>415</v>
+        <v>111</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9039,21 +9065,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -9062,23 +9088,21 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>418</v>
+        <v>139</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>419</v>
+        <v>225</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9114,40 +9138,40 @@
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>421</v>
+        <v>182</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>423</v>
+        <v>104</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9158,10 +9182,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9184,19 +9208,19 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>426</v>
+        <v>106</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9206,7 +9230,7 @@
         <v>80</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>80</v>
@@ -9245,7 +9269,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9263,10 +9287,10 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9277,10 +9301,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9306,17 +9330,15 @@
         <v>174</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9364,7 +9386,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9382,10 +9404,10 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9396,14 +9418,12 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9412,10 +9432,10 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>80</v>
@@ -9424,18 +9444,20 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>362</v>
+        <v>434</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9459,13 +9481,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9483,13 +9505,13 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>360</v>
+        <v>436</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>102</v>
@@ -9498,27 +9520,27 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>338</v>
+        <v>437</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>339</v>
+        <v>438</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>372</v>
+        <v>440</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9538,19 +9560,23 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>174</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>175</v>
+        <v>441</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9559,7 +9585,7 @@
         <v>80</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>80</v>
@@ -9598,7 +9624,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>177</v>
+        <v>444</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9607,19 +9633,19 @@
         <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>111</v>
+        <v>446</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9630,21 +9656,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9653,21 +9679,23 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>139</v>
+        <v>450</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>225</v>
+        <v>451</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9703,40 +9731,40 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>182</v>
+        <v>454</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>104</v>
+        <v>456</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9747,10 +9775,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>377</v>
+        <v>458</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9761,7 +9789,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -9773,19 +9801,19 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>378</v>
+        <v>174</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>379</v>
+        <v>459</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>381</v>
+        <v>461</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>382</v>
+        <v>462</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9834,13 +9862,13 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>383</v>
+        <v>463</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>102</v>
@@ -9852,10 +9880,10 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>384</v>
+        <v>464</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>385</v>
+        <v>465</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9866,24 +9894,26 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
@@ -9892,20 +9922,18 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9929,13 +9957,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9953,13 +9981,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>440</v>
+        <v>383</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>102</v>
@@ -9968,27 +9996,27 @@
         <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>441</v>
+        <v>361</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>442</v>
+        <v>362</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>451</v>
+        <v>395</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9999,25 +10027,25 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>452</v>
+        <v>174</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>453</v>
+        <v>175</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>454</v>
+        <v>176</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10029,7 +10057,7 @@
         <v>80</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>80</v>
+        <v>470</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>80</v>
@@ -10068,22 +10096,22 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>451</v>
+        <v>177</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
@@ -10092,7 +10120,7 @@
         <v>111</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10100,21 +10128,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>457</v>
+        <v>398</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -10126,15 +10154,17 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10171,31 +10201,31 @@
         <v>80</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
@@ -10204,7 +10234,7 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10215,14 +10245,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>458</v>
+        <v>400</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10238,21 +10268,23 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>138</v>
+        <v>401</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>139</v>
+        <v>402</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10288,19 +10320,19 @@
         <v>80</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>182</v>
+        <v>406</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10312,16 +10344,16 @@
         <v>102</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>104</v>
+        <v>408</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10332,44 +10364,46 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>460</v>
-      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J69" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K69" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10417,28 +10451,28 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>182</v>
+        <v>463</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>80</v>
+        <v>464</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>80</v>
+        <v>465</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10449,14 +10483,12 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10465,7 +10497,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>91</v>
@@ -10474,16 +10506,16 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10534,7 +10566,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>182</v>
+        <v>474</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10546,19 +10578,19 @@
         <v>102</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>80</v>
+        <v>478</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>80</v>
+        <v>479</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10566,14 +10598,12 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10585,7 +10615,7 @@
         <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>80</v>
@@ -10594,13 +10624,13 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>471</v>
+        <v>174</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>472</v>
+        <v>175</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>473</v>
+        <v>176</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10651,19 +10681,19 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
@@ -10672,7 +10702,7 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -10683,23 +10713,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10711,15 +10739,17 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>476</v>
+        <v>138</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>477</v>
+        <v>139</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10756,16 +10786,16 @@
         <v>80</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>182</v>
@@ -10789,7 +10819,7 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -10800,12 +10830,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10817,26 +10849,24 @@
         <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>174</v>
+        <v>484</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10885,19 +10915,19 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>483</v>
+        <v>182</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
@@ -10906,7 +10936,7 @@
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -10917,12 +10947,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="D74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10931,25 +10963,25 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11000,7 +11032,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>488</v>
+        <v>182</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11012,16 +11044,16 @@
         <v>102</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>489</v>
+        <v>146</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>490</v>
+        <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>491</v>
+        <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
@@ -11035,9 +11067,11 @@
         <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>80</v>
       </c>
@@ -11046,7 +11080,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>91</v>
@@ -11058,17 +11092,15 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N75" t="s" s="2">
         <v>496</v>
       </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -11117,7 +11149,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>492</v>
+        <v>182</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11129,19 +11161,19 @@
         <v>102</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>497</v>
+        <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>498</v>
+        <v>80</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -11149,12 +11181,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>80</v>
       </c>
@@ -11163,7 +11197,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -11172,10 +11206,10 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>240</v>
+        <v>499</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>500</v>
@@ -11183,9 +11217,7 @@
       <c r="M76" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="N76" t="s" s="2">
-        <v>334</v>
-      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -11210,10 +11242,10 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>502</v>
+        <v>80</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>80</v>
@@ -11234,7 +11266,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>499</v>
+        <v>182</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11246,19 +11278,19 @@
         <v>102</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>503</v>
+        <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11266,10 +11298,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11280,10 +11312,10 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>80</v>
@@ -11292,16 +11324,16 @@
         <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>334</v>
+        <v>505</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11327,13 +11359,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>508</v>
+        <v>80</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>509</v>
+        <v>80</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -11351,13 +11383,13 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>102</v>
@@ -11366,13 +11398,13 @@
         <v>103</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>339</v>
+        <v>111</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>
@@ -11383,10 +11415,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11397,29 +11429,27 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J78" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K78" t="s" s="2">
-        <v>192</v>
+        <v>508</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11474,25 +11504,25 @@
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>103</v>
+        <v>512</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>515</v>
+        <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>80</v>
+        <v>513</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>111</v>
+        <v>514</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>516</v>
+        <v>80</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11500,14 +11530,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>518</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11523,19 +11553,19 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11585,7 +11615,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11597,41 +11627,41 @@
         <v>102</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>286</v>
+        <v>103</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>524</v>
+        <v>111</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>526</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>528</v>
+        <v>80</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
@@ -11643,16 +11673,16 @@
         <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>274</v>
+        <v>357</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11678,10 +11708,10 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>80</v>
+        <v>525</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>80</v>
@@ -11702,42 +11732,42 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>276</v>
+        <v>103</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>532</v>
+        <v>361</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>533</v>
+        <v>362</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>535</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11748,27 +11778,29 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>175</v>
+        <v>529</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -11793,13 +11825,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>80</v>
+        <v>531</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -11817,28 +11849,28 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>177</v>
+        <v>528</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>80</v>
+        <v>533</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>111</v>
+        <v>362</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>80</v>
@@ -11849,24 +11881,24 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>80</v>
@@ -11875,16 +11907,16 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>139</v>
+        <v>535</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>225</v>
+        <v>536</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>141</v>
+        <v>537</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11922,43 +11954,43 @@
         <v>80</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>182</v>
+        <v>534</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>80</v>
+        <v>538</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>80</v>
+        <v>539</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -11966,24 +11998,24 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>80</v>
+        <v>541</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>80</v>
@@ -11992,16 +12024,16 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12051,46 +12083,46 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>544</v>
+        <v>102</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>80</v>
+        <v>546</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>545</v>
+        <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>80</v>
+        <v>548</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>80</v>
+        <v>549</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>80</v>
+        <v>551</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12100,7 +12132,7 @@
         <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>80</v>
@@ -12109,24 +12141,22 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>539</v>
+        <v>271</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>550</v>
+        <v>274</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q84" t="s" s="2">
-        <v>551</v>
-      </c>
+      <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12170,7 +12200,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12179,33 +12209,33 @@
         <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>544</v>
+        <v>102</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>103</v>
+        <v>276</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>80</v>
+        <v>557</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>80</v>
+        <v>558</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12219,26 +12249,24 @@
         <v>90</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>281</v>
+        <v>174</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>556</v>
+        <v>175</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -12287,7 +12315,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>555</v>
+        <v>177</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12296,44 +12324,44 @@
         <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>558</v>
+        <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>559</v>
+        <v>111</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>560</v>
+        <v>80</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>561</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -12342,19 +12370,19 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>563</v>
+        <v>138</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>564</v>
+        <v>139</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>565</v>
+        <v>225</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12392,54 +12420,54 @@
         <v>80</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>562</v>
+        <v>182</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>566</v>
+        <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>567</v>
+        <v>104</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>568</v>
+        <v>80</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>561</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12450,10 +12478,10 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>80</v>
@@ -12462,16 +12490,16 @@
         <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>570</v>
+        <v>285</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>572</v>
+        <v>287</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12521,42 +12549,42 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>569</v>
+        <v>289</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>286</v>
+        <v>103</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>573</v>
+        <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>567</v>
+        <v>292</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>574</v>
+        <v>80</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>575</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12570,7 +12598,7 @@
         <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>80</v>
@@ -12579,22 +12607,24 @@
         <v>91</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>578</v>
+        <v>296</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="R88" t="s" s="2">
         <v>80</v>
       </c>
@@ -12614,13 +12644,13 @@
         <v>80</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>579</v>
+        <v>80</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>80</v>
@@ -12638,7 +12668,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>576</v>
+        <v>299</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12647,33 +12677,33 @@
         <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>581</v>
+        <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>582</v>
+        <v>80</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>583</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12684,28 +12714,28 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>585</v>
+        <v>304</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>588</v>
+        <v>334</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12755,42 +12785,42 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>80</v>
+        <v>571</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12801,7 +12831,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
@@ -12810,18 +12840,20 @@
         <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -12870,42 +12902,42 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>111</v>
+        <v>577</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>80</v>
+        <v>571</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12916,27 +12948,29 @@
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>174</v>
+        <v>580</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>175</v>
+        <v>581</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -12985,53 +13019,53 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>177</v>
+        <v>579</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>80</v>
+        <v>583</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>111</v>
+        <v>577</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>80</v>
+        <v>584</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>80</v>
+        <v>585</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
@@ -13040,19 +13074,19 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>139</v>
+        <v>587</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>225</v>
+        <v>588</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>141</v>
+        <v>357</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13078,70 +13112,70 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>80</v>
+        <v>589</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>80</v>
+        <v>590</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>182</v>
+        <v>586</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>80</v>
+        <v>591</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>104</v>
+        <v>362</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>80</v>
+        <v>592</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>80</v>
+        <v>593</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13154,26 +13188,24 @@
         <v>80</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>138</v>
+        <v>595</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>80</v>
       </c>
@@ -13221,7 +13253,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13233,16 +13265,16 @@
         <v>102</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>80</v>
+        <v>599</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>104</v>
+        <v>600</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>80</v>
@@ -13253,10 +13285,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13264,10 +13296,10 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>80</v>
@@ -13279,17 +13311,15 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>174</v>
+        <v>602</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13338,13 +13368,13 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>102</v>
@@ -13353,7 +13383,7 @@
         <v>103</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>80</v>
@@ -13362,7 +13392,7 @@
         <v>111</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13370,10 +13400,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13396,17 +13426,15 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>610</v>
+        <v>175</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13455,7 +13483,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>609</v>
+        <v>177</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13464,22 +13492,22 @@
         <v>90</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>612</v>
+        <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>339</v>
+        <v>111</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>613</v>
+        <v>80</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13487,21 +13515,21 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>80</v>
@@ -13513,16 +13541,16 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>615</v>
+        <v>139</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>616</v>
+        <v>225</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>304</v>
+        <v>141</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13560,43 +13588,43 @@
         <v>80</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>614</v>
+        <v>182</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>617</v>
+        <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>618</v>
+        <v>80</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -13604,14 +13632,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>80</v>
+        <v>610</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13624,22 +13652,26 @@
         <v>80</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>592</v>
+        <v>138</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+        <v>612</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>80</v>
       </c>
@@ -13687,7 +13719,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13699,16 +13731,16 @@
         <v>102</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>622</v>
+        <v>80</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>80</v>
@@ -13719,10 +13751,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13730,7 +13762,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>90</v>
@@ -13748,12 +13780,14 @@
         <v>174</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>175</v>
+        <v>615</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>80</v>
@@ -13802,22 +13836,22 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>177</v>
+        <v>614</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>80</v>
+        <v>617</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>80</v>
@@ -13826,7 +13860,7 @@
         <v>111</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>80</v>
+        <v>618</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>80</v>
@@ -13834,21 +13868,21 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>80</v>
@@ -13860,16 +13894,16 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>139</v>
+        <v>620</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>225</v>
+        <v>621</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>141</v>
+        <v>357</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13907,43 +13941,43 @@
         <v>80</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>182</v>
+        <v>619</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>80</v>
+        <v>622</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>104</v>
+        <v>362</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>80</v>
+        <v>623</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -13951,46 +13985,44 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>80</v>
       </c>
@@ -14038,31 +14070,31 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>603</v>
+        <v>624</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>80</v>
+        <v>627</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>80</v>
+        <v>628</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>80</v>
@@ -14070,10 +14102,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14084,7 +14116,7 @@
         <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>80</v>
@@ -14096,17 +14128,15 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>174</v>
+        <v>602</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>80</v>
@@ -14155,13 +14185,13 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>102</v>
@@ -14170,7 +14200,7 @@
         <v>103</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>80</v>
@@ -14187,10 +14217,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14213,17 +14243,15 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>631</v>
+        <v>175</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>80</v>
@@ -14248,13 +14276,13 @@
         <v>80</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>633</v>
+        <v>80</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>634</v>
+        <v>80</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>80</v>
@@ -14272,7 +14300,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>630</v>
+        <v>177</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14281,29 +14309,499 @@
         <v>90</v>
       </c>
       <c r="AI102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI103" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ102" t="s" s="2">
+      <c r="AJ103" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AK102" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO102" t="s" s="2">
+      <c r="AK105" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO106" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO102">
+  <autoFilter ref="A1:AO106">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14313,7 +14811,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI101">
+  <conditionalFormatting sqref="A2:AI105">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/sd-add-date-start-idPrimary/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-date-start-idPrimary/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T11:35:25+00:00</t>
+    <t>2024-01-24T12:42:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
